--- a/examples/ex060.MF_Separator.xlsx
+++ b/examples/ex060.MF_Separator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr updateLinks="always" codeName="Workbook________" hidePivotFieldList="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\exercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CAB4BA-95DC-4E01-A09C-E6C9E3662CC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD099C70-6F26-4092-BE57-11CB2B71D29A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Separation" sheetId="110" r:id="rId1"/>
@@ -19,30 +19,32 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="Bob_" localSheetId="0">Separation!$C$14</definedName>
-    <definedName name="cf_dcas_">Separation!$F$30</definedName>
-    <definedName name="Dcas_" localSheetId="0">Separation!$C$19</definedName>
-    <definedName name="Dintake_" localSheetId="0">Separation!$C$20</definedName>
-    <definedName name="gamma_gas_" localSheetId="0">Separation!$C$9</definedName>
-    <definedName name="gamma_oil_" localSheetId="0">Separation!$C$7</definedName>
-    <definedName name="gamma_wat_" localSheetId="0">Separation!$C$8</definedName>
-    <definedName name="gassep_type">Separation!$H$30</definedName>
-    <definedName name="muob_" localSheetId="0">Separation!$C$15</definedName>
-    <definedName name="Pb_" localSheetId="0">Separation!$C$12</definedName>
-    <definedName name="Pintake_" localSheetId="0">Separation!$C$21</definedName>
-    <definedName name="PVT_str_">Separation!$C$25</definedName>
-    <definedName name="Rp_" localSheetId="0">Separation!$C$11</definedName>
-    <definedName name="Rsb_" localSheetId="0">Separation!$C$10</definedName>
-    <definedName name="Tintake_" localSheetId="0">Separation!$C$22</definedName>
-    <definedName name="Tres_" localSheetId="0">Separation!$C$13</definedName>
-    <definedName name="wc_" localSheetId="0">Separation!$C$16</definedName>
+    <definedName name="Bob_" localSheetId="0">Separation!$C$18</definedName>
+    <definedName name="cf_dcas_">Separation!$F$34</definedName>
+    <definedName name="Dcas_" localSheetId="0">Separation!$C$23</definedName>
+    <definedName name="Dintake_" localSheetId="0">Separation!$C$24</definedName>
+    <definedName name="gamma_gas_" localSheetId="0">Separation!$C$13</definedName>
+    <definedName name="gamma_oil_" localSheetId="0">Separation!$C$11</definedName>
+    <definedName name="gamma_wat_" localSheetId="0">Separation!$C$12</definedName>
+    <definedName name="gassep_type">Separation!$H$34</definedName>
+    <definedName name="muob_" localSheetId="0">Separation!$C$19</definedName>
+    <definedName name="Pb_" localSheetId="0">Separation!$C$16</definedName>
+    <definedName name="Pintake_" localSheetId="0">Separation!$C$25</definedName>
+    <definedName name="PVT_str_">Separation!$C$29</definedName>
+    <definedName name="Rp_" localSheetId="0">Separation!$C$15</definedName>
+    <definedName name="Rsb_" localSheetId="0">Separation!$C$14</definedName>
+    <definedName name="Tintake_" localSheetId="0">Separation!$C$26</definedName>
+    <definedName name="Tres_" localSheetId="0">Separation!$C$17</definedName>
+    <definedName name="wc_" localSheetId="0">Separation!$C$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -803,7 +805,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -818,7 +820,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Separation!$E$31</c:f>
+              <c:f>Separation!$E$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -853,7 +855,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Separation!$C$32:$C$57</c:f>
+              <c:f>Separation!$C$36:$C$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -940,87 +942,87 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Separation!$E$32:$E$57</c:f>
+              <c:f>Separation!$E$36:$E$61</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.98028859325319295</c:v>
+                  <c:v>0.98049031985247814</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94470466426492072</c:v>
+                  <c:v>0.94555138636121006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8999236735744528</c:v>
+                  <c:v>0.90152042226998619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82928830016754196</c:v>
+                  <c:v>0.83194893368039968</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7692645306855268</c:v>
+                  <c:v>0.77271408082353421</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73264505573305816</c:v>
+                  <c:v>0.73652006705791617</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68822517844965314</c:v>
+                  <c:v>0.69255381996444465</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6484331636991052</c:v>
+                  <c:v>0.65310380373342658</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61260517877765985</c:v>
+                  <c:v>0.61752520116363196</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.58023469995319188</c:v>
+                  <c:v>0.58532616450310126</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.55091855125540112</c:v>
+                  <c:v>0.55611531726363705</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.52432571438933961</c:v>
+                  <c:v>0.52957141271840857</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.50017790833451481</c:v>
+                  <c:v>0.50542444388830621</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.47823679654791729</c:v>
+                  <c:v>0.48344320159454468</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.45829517837335598</c:v>
+                  <c:v>0.46342670856308232</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.44017070266659086</c:v>
+                  <c:v>0.4451981071283615</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.42370124661810937</c:v>
+                  <c:v>0.42860016673006252</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.40874143295390408</c:v>
+                  <c:v>0.41349189867356206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.39515994859888792</c:v>
+                  <c:v>0.39974595039195115</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.38283744199144643</c:v>
+                  <c:v>0.38724656246091982</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.37166484739505279</c:v>
+                  <c:v>0.37588794084561705</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.36154203037267374</c:v>
+                  <c:v>0.36557294143433205</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.35237667892881852</c:v>
+                  <c:v>0.35621199342816867</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.34408338541161276</c:v>
+                  <c:v>0.34772220818301403</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.33658287854462676</c:v>
+                  <c:v>0.34002663398834132</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.32980137505356533</c:v>
+                  <c:v>0.33305362708723774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1037,7 +1039,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Separation!$F$31</c:f>
+              <c:f>Separation!$F$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1072,7 +1074,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Separation!$C$32:$C$57</c:f>
+              <c:f>Separation!$C$36:$C$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1159,87 +1161,87 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Separation!$F$32:$F$57</c:f>
+              <c:f>Separation!$F$36:$F$61</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.96969309201120257</c:v>
+                  <c:v>0.97009246267303728</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89538284181503536</c:v>
+                  <c:v>0.8970522954081841</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82175193507412092</c:v>
+                  <c:v>0.82451757037543061</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72173371190572988</c:v>
+                  <c:v>0.7257267320492452</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6353640953408991</c:v>
+                  <c:v>0.64013249877996503</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56608002741059726</c:v>
+                  <c:v>0.57122864777772353</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.50984107899469877</c:v>
+                  <c:v>0.51509261478571533</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46396398547128626</c:v>
+                  <c:v>0.46912080762854869</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.42649397747931994</c:v>
+                  <c:v>0.43141714152644095</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.39592289447932094</c:v>
+                  <c:v>0.40051894784698439</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.37104126500460533</c:v>
+                  <c:v>0.37525319609408436</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.35085212367613439</c:v>
+                  <c:v>0.35465275964017806</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.33451685442141121</c:v>
+                  <c:v>0.3379038239004597</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.32131913986811034</c:v>
+                  <c:v>0.32431089745423947</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.31063984342299866</c:v>
+                  <c:v>0.31327244946686861</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.30193884651707981</c:v>
+                  <c:v>0.30426330547102243</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.29474150326600235</c:v>
+                  <c:v>0.29682152843273535</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.28862827155793003</c:v>
+                  <c:v>0.29053838416242339</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.28322659636764946</c:v>
+                  <c:v>0.28505049267977167</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.27820443226268754</c:v>
+                  <c:v>0.28003356969953597</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.27326498659267173</c:v>
+                  <c:v>0.27519735150506097</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.26814239056053424</c:v>
+                  <c:v>0.2702814186024165</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.26259808920658134</c:v>
+                  <c:v>0.26505171484112022</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.25641779927108477</c:v>
+                  <c:v>0.25929761453945233</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.23264624777464604</c:v>
+                  <c:v>0.23746445796803251</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.22129049898017428</c:v>
+                  <c:v>0.22707984943605819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1339,7 +1341,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1377,7 +1379,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="232971584"/>
@@ -1461,7 +1463,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1499,7 +1501,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="232971008"/>
@@ -1541,7 +1543,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1571,7 +1573,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1652,7 +1654,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1667,7 +1669,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Separation!$E$31</c:f>
+              <c:f>Separation!$E$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1702,7 +1704,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Separation!$C$32:$C$57</c:f>
+              <c:f>Separation!$C$36:$C$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1789,87 +1791,87 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Separation!$E$32:$E$57</c:f>
+              <c:f>Separation!$E$36:$E$61</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.98028859325319295</c:v>
+                  <c:v>0.98049031985247814</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94470466426492072</c:v>
+                  <c:v>0.94555138636121006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8999236735744528</c:v>
+                  <c:v>0.90152042226998619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82928830016754196</c:v>
+                  <c:v>0.83194893368039968</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7692645306855268</c:v>
+                  <c:v>0.77271408082353421</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73264505573305816</c:v>
+                  <c:v>0.73652006705791617</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68822517844965314</c:v>
+                  <c:v>0.69255381996444465</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6484331636991052</c:v>
+                  <c:v>0.65310380373342658</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61260517877765985</c:v>
+                  <c:v>0.61752520116363196</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.58023469995319188</c:v>
+                  <c:v>0.58532616450310126</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.55091855125540112</c:v>
+                  <c:v>0.55611531726363705</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.52432571438933961</c:v>
+                  <c:v>0.52957141271840857</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.50017790833451481</c:v>
+                  <c:v>0.50542444388830621</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.47823679654791729</c:v>
+                  <c:v>0.48344320159454468</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.45829517837335598</c:v>
+                  <c:v>0.46342670856308232</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.44017070266659086</c:v>
+                  <c:v>0.4451981071283615</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.42370124661810937</c:v>
+                  <c:v>0.42860016673006252</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.40874143295390408</c:v>
+                  <c:v>0.41349189867356206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.39515994859888792</c:v>
+                  <c:v>0.39974595039195115</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.38283744199144643</c:v>
+                  <c:v>0.38724656246091982</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.37166484739505279</c:v>
+                  <c:v>0.37588794084561705</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.36154203037267374</c:v>
+                  <c:v>0.36557294143433205</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.35237667892881852</c:v>
+                  <c:v>0.35621199342816867</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.34408338541161276</c:v>
+                  <c:v>0.34772220818301403</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.33658287854462676</c:v>
+                  <c:v>0.34002663398834132</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.32980137505356533</c:v>
+                  <c:v>0.33305362708723774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1886,7 +1888,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Separation!$I$31</c:f>
+              <c:f>Separation!$I$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1921,7 +1923,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Separation!$C$32:$C$57</c:f>
+              <c:f>Separation!$C$36:$C$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2008,87 +2010,87 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Separation!$I$32:$I$57</c:f>
+              <c:f>Separation!$I$36:$I$61</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.98445359896707363</c:v>
+                  <c:v>0.98452884598603363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97591984056482128</c:v>
+                  <c:v>0.97584158293829937</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97003010108284615</c:v>
+                  <c:v>0.96996895911111725</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97071387015207033</c:v>
+                  <c:v>0.96998622271842083</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98047272335789459</c:v>
+                  <c:v>0.97928350674374842</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98991891758673811</c:v>
+                  <c:v>0.98880161165858982</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99421979561581852</c:v>
+                  <c:v>0.99347619524916331</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99356149569244101</c:v>
+                  <c:v>0.99343662680426947</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98793888395012786</c:v>
+                  <c:v>0.98856113264537437</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9776543185194656</c:v>
+                  <c:v>0.97906929654670327</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.96413143156137637</c:v>
+                  <c:v>0.96631517773115483</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.94904899578538693</c:v>
+                  <c:v>0.95192803839582274</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.93300931408916421</c:v>
+                  <c:v>0.93649798343392932</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.91645437555802445</c:v>
+                  <c:v>0.92046904483059599</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.89968776710598497</c:v>
+                  <c:v>0.9041558686852601</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.88289971077254192</c:v>
+                  <c:v>0.8877651023211296</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.86619033116026256</c:v>
+                  <c:v>0.87141625826220048</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.84958934410111475</c:v>
+                  <c:v>0.85515991921959911</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.83307177120046716</c:v>
+                  <c:v>0.83899262836611799</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.81656987937785375</c:v>
+                  <c:v>0.82286847328438184</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.79998176479512573</c:v>
+                  <c:v>0.80670764457118294</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.78317706607958615</c:v>
+                  <c:v>0.79040234849381752</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.76600030321663681</c:v>
+                  <c:v>0.77382048215612087</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.74827233784748026</c:v>
+                  <c:v>0.7568074861774996</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.7162774481994818</c:v>
+                  <c:v>0.72743045442212162</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.69315960823790324</c:v>
+                  <c:v>0.70585178427339557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2186,7 +2188,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2224,7 +2226,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="233646336"/>
@@ -2308,7 +2310,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2346,7 +2348,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="233645760"/>
@@ -2388,7 +2390,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2418,7 +2420,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3547,13 +3549,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>447837</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>154880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>336176</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3585,13 +3587,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>50828</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>9205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>392206</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3623,13 +3625,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>853408</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>261978</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3713,7 +3715,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="ESPbase"/>
       <sheetName val="Info"/>
     </sheetNames>
     <definedNames>
@@ -3726,7 +3727,6 @@
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4032,22 +4032,22 @@
   <sheetPr codeName="WorksheetSeparation">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T160"/>
+  <dimension ref="A1:T164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.46484375" customWidth="1"/>
-    <col min="3" max="4" width="9.796875" customWidth="1"/>
-    <col min="5" max="9" width="15.73046875" customWidth="1"/>
-    <col min="10" max="10" width="11.265625" customWidth="1"/>
-    <col min="11" max="11" width="10.19921875" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -4056,1088 +4056,1056 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="10" t="s">
+    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C11" s="2">
         <v>0.875</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15">
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15">
         <f>gamma_oil_*1000</f>
         <v>875</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G11" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="11" t="s">
+    <row r="12" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15">
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15">
         <f>gamma_wat_*1000</f>
         <v>1000</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G12" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="11" t="s">
+    <row r="13" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C13" s="2">
         <v>0.9</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15">
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15">
         <f>gamma_gas_*1.22</f>
         <v>1.0980000000000001</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G13" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="12" t="s">
+    <row r="14" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C14" s="2">
         <v>80</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F14" s="16">
         <f>Rsb_/gamma_oil_</f>
         <v>91.428571428571431</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G14" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="12" t="s">
+    <row r="15" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C15" s="2">
         <v>80</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F15" s="16">
         <f>Rsb_/gamma_oil_</f>
         <v>91.428571428571431</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G15" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="11" t="s">
+    <row r="16" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C16" s="2">
         <v>120</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F16" s="16">
         <f>Pb_*1.01325</f>
         <v>121.59</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G16" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="11" t="s">
+    <row r="17" spans="1:20" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C17" s="2">
         <v>120</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E17" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F17" s="16">
         <f>Tres_*9/5+32</f>
         <v>248</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G17" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="12" t="s">
+    <row r="18" spans="1:20" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C18" s="2">
         <v>1.2</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="13" t="s">
+    <row r="19" spans="1:20" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C19" s="2">
         <v>1</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.5">
-      <c r="B16" s="13" t="s">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:20" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="13" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:20" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C23" s="2">
         <v>125</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="13" t="s">
+    <row r="24" spans="1:20" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C24" s="2">
         <v>100</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D24" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="13" t="s">
+    <row r="25" spans="1:20" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C25" s="2">
         <v>30</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="13" t="s">
+    <row r="26" spans="1:20" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C26" s="2">
         <v>80</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B25" s="17" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="18" t="str">
+      <c r="C29" s="18" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,900;gamma_oil:0,875;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:120,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-    </row>
-    <row r="26" spans="1:20" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+        <v>gamma_gas:0.900;gamma_oil:0.875;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:120.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+    </row>
+    <row r="30" spans="1:20" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="32" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="F30" s="5">
+    <row r="33" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="5">
         <v>0.9</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H34" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="39.4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="21" t="s">
+    <row r="35" spans="3:9" ht="51" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D35" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="22" t="str">
+      <c r="E35" s="22" t="str">
         <f>"Естественная сепарация "&amp;Dcas_&amp;" мм"</f>
         <v>Естественная сепарация 125 мм</v>
       </c>
-      <c r="F31" s="22" t="str">
+      <c r="F35" s="22" t="str">
         <f>"Естественная сепарация "&amp;Dcas_*cf_dcas_&amp;" мм"</f>
         <v>Естественная сепарация 112.5 мм</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G35" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H35" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="22" t="s">
+      <c r="I35" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="2">
+    <row r="36" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="2">
         <v>1</v>
-      </c>
-      <c r="D32" s="2">
-        <v>80</v>
-      </c>
-      <c r="E32" s="20">
-        <f>[1]!MF_ksep_natural_d(C32,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.98028859325319295</v>
-      </c>
-      <c r="F32" s="20">
-        <f>[1]!MF_ksep_natural_d(C32,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.96969309201120257</v>
-      </c>
-      <c r="G32" s="20">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F32)</f>
-        <v>2.0948017252939693E-2</v>
-      </c>
-      <c r="H32" s="20">
-        <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G32,C32)</f>
-        <v>0.21129926277612693</v>
-      </c>
-      <c r="I32" s="20">
-        <f>[1]!MF_ksep_total_d(E32,H32)</f>
-        <v>0.98445359896707363</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="2">
-        <v>5</v>
-      </c>
-      <c r="D33" s="2">
-        <v>80</v>
-      </c>
-      <c r="E33" s="20">
-        <f>[1]!MF_ksep_natural_d(C33,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.94470466426492072</v>
-      </c>
-      <c r="F33" s="20">
-        <f>[1]!MF_ksep_natural_d(C33,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.89538284181503536</v>
-      </c>
-      <c r="G33" s="20">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F33)</f>
-        <v>7.2310973967460793E-2</v>
-      </c>
-      <c r="H33" s="20">
-        <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G33,C33)</f>
-        <v>0.56451734825253441</v>
-      </c>
-      <c r="I33" s="20">
-        <f>[1]!MF_ksep_total_d(E33,H33)</f>
-        <v>0.97591984056482128</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="2">
-        <v>10</v>
-      </c>
-      <c r="D34" s="2">
-        <v>80</v>
-      </c>
-      <c r="E34" s="20">
-        <f>[1]!MF_ksep_natural_d(C34,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.8999236735744528</v>
-      </c>
-      <c r="F34" s="20">
-        <f>[1]!MF_ksep_natural_d(C34,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.82175193507412092</v>
-      </c>
-      <c r="G34" s="20">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F34)</f>
-        <v>0.12320437112062489</v>
-      </c>
-      <c r="H34" s="20">
-        <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G34,C34)</f>
-        <v>0.70052958589112235</v>
-      </c>
-      <c r="I34" s="20">
-        <f>[1]!MF_ksep_total_d(E34,H34)</f>
-        <v>0.97003010108284615</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="2">
-        <v>20</v>
-      </c>
-      <c r="D35" s="2">
-        <v>80</v>
-      </c>
-      <c r="E35" s="20">
-        <f>[1]!MF_ksep_natural_d(C35,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.82928830016754196</v>
-      </c>
-      <c r="F35" s="20">
-        <f>[1]!MF_ksep_natural_d(C35,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.72173371190572988</v>
-      </c>
-      <c r="G35" s="20">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F35)</f>
-        <v>0.19233657904214188</v>
-      </c>
-      <c r="H35" s="20">
-        <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G35,C35)</f>
-        <v>0.8284468500010721</v>
-      </c>
-      <c r="I35" s="20">
-        <f>[1]!MF_ksep_total_d(E35,H35)</f>
-        <v>0.97071387015207033</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="2">
-        <v>30</v>
       </c>
       <c r="D36" s="2">
         <v>80</v>
       </c>
       <c r="E36" s="20">
         <f>[1]!MF_ksep_natural_d(C36,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.7692645306855268</v>
+        <v>0.98049031985247814</v>
       </c>
       <c r="F36" s="20">
         <f>[1]!MF_ksep_natural_d(C36,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.6353640953408991</v>
+        <v>0.97009246267303728</v>
       </c>
       <c r="G36" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F36)</f>
-        <v>0.25203492301700847</v>
+        <v>2.0477873913540456E-2</v>
       </c>
       <c r="H36" s="20">
         <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G36,C36)</f>
-        <v>0.91536941979435615</v>
+        <v>0.20700114522730778</v>
       </c>
       <c r="I36" s="20">
         <f>[1]!MF_ksep_total_d(E36,H36)</f>
-        <v>0.98047272335789459</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.98452884598603363</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C37" s="2">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D37" s="2">
         <v>80</v>
       </c>
       <c r="E37" s="20">
         <f>[1]!MF_ksep_natural_d(C37,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.73264505573305816</v>
+        <v>0.94555138636121006</v>
       </c>
       <c r="F37" s="20">
         <f>[1]!MF_ksep_natural_d(C37,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.56608002741059726</v>
+        <v>0.8970522954081841</v>
       </c>
       <c r="G37" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F37)</f>
-        <v>0.29992380204400415</v>
+        <v>7.0488923620569813E-2</v>
       </c>
       <c r="H37" s="20">
         <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G37,C37)</f>
-        <v>0.96229326358297551</v>
+        <v>0.556307948959606</v>
       </c>
       <c r="I37" s="20">
         <f>[1]!MF_ksep_total_d(E37,H37)</f>
-        <v>0.98991891758673811</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.97584158293829937</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C38" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D38" s="2">
         <v>80</v>
       </c>
       <c r="E38" s="20">
         <f>[1]!MF_ksep_natural_d(C38,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.68822517844965314</v>
+        <v>0.90152042226998619</v>
       </c>
       <c r="F38" s="20">
         <f>[1]!MF_ksep_natural_d(C38,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.50984107899469877</v>
+        <v>0.82451757037543061</v>
       </c>
       <c r="G38" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F38)</f>
-        <v>0.3387959450596788</v>
+        <v>0.12015389393676332</v>
       </c>
       <c r="H38" s="20">
         <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G38,C38)</f>
-        <v>0.98146032333387734</v>
+        <v>0.6950531106945419</v>
       </c>
       <c r="I38" s="20">
         <f>[1]!MF_ksep_total_d(E38,H38)</f>
-        <v>0.99421979561581852</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.96996895911111725</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C39" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D39" s="2">
         <v>80</v>
       </c>
       <c r="E39" s="20">
         <f>[1]!MF_ksep_natural_d(C39,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.6484331636991052</v>
+        <v>0.83194893368039968</v>
       </c>
       <c r="F39" s="20">
         <f>[1]!MF_ksep_natural_d(C39,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.46396398547128626</v>
+        <v>0.7257267320492452</v>
       </c>
       <c r="G39" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F39)</f>
-        <v>0.3705060141633435</v>
+        <v>0.187796585775277</v>
       </c>
       <c r="H39" s="20">
         <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G39,C39)</f>
-        <v>0.9816862580802459</v>
+        <v>0.82140085190236878</v>
       </c>
       <c r="I39" s="20">
         <f>[1]!MF_ksep_total_d(E39,H39)</f>
-        <v>0.99356149569244101</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.96998622271842083</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C40" s="2">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2">
         <v>80</v>
       </c>
       <c r="E40" s="20">
         <f>[1]!MF_ksep_natural_d(C40,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.61260517877765985</v>
+        <v>0.77271408082353421</v>
       </c>
       <c r="F40" s="20">
         <f>[1]!MF_ksep_natural_d(C40,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.42649397747931994</v>
+        <v>0.64013249877996503</v>
       </c>
       <c r="G40" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F40)</f>
-        <v>0.39640513835554531</v>
+        <v>0.24640348133649354</v>
       </c>
       <c r="H40" s="20">
         <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G40,C40)</f>
-        <v>0.96886608857646594</v>
+        <v>0.90885272025951058</v>
       </c>
       <c r="I40" s="20">
         <f>[1]!MF_ksep_total_d(E40,H40)</f>
-        <v>0.98793888395012786</v>
-      </c>
-    </row>
-    <row r="41" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.97928350674374842</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C41" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2">
         <v>80</v>
       </c>
       <c r="E41" s="20">
         <f>[1]!MF_ksep_natural_d(C41,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.58023469995319188</v>
+        <v>0.73652006705791617</v>
       </c>
       <c r="F41" s="20">
         <f>[1]!MF_ksep_natural_d(C41,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.39592289447932094</v>
+        <v>0.57122864777772353</v>
       </c>
       <c r="G41" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F41)</f>
-        <v>0.41753575235159363</v>
+        <v>0.293582369974349</v>
       </c>
       <c r="H41" s="20">
         <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G41,C41)</f>
-        <v>0.94676624895377803</v>
+        <v>0.95749813575414988</v>
       </c>
       <c r="I41" s="20">
         <f>[1]!MF_ksep_total_d(E41,H41)</f>
-        <v>0.9776543185194656</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.98880161165858982</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C42" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D42" s="2">
         <v>80</v>
       </c>
       <c r="E42" s="20">
         <f>[1]!MF_ksep_natural_d(C42,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.55091855125540112</v>
+        <v>0.69255381996444465</v>
       </c>
       <c r="F42" s="20">
         <f>[1]!MF_ksep_natural_d(C42,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.37104126500460533</v>
+        <v>0.51509261478571533</v>
       </c>
       <c r="G42" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F42)</f>
-        <v>0.43473383813818256</v>
+        <v>0.33201905545096738</v>
       </c>
       <c r="H42" s="20">
         <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G42,C42)</f>
-        <v>0.9201290355259748</v>
+        <v>0.97878066089459226</v>
       </c>
       <c r="I42" s="20">
         <f>[1]!MF_ksep_total_d(E42,H42)</f>
-        <v>0.96413143156137637</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.99347619524916331</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C43" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D43" s="2">
         <v>80</v>
       </c>
       <c r="E43" s="20">
         <f>[1]!MF_ksep_natural_d(C43,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.52432571438933961</v>
+        <v>0.65310380373342658</v>
       </c>
       <c r="F43" s="20">
         <f>[1]!MF_ksep_natural_d(C43,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.35085212367613439</v>
+        <v>0.46912080762854869</v>
       </c>
       <c r="G43" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F43)</f>
-        <v>0.44868849431845587</v>
+        <v>0.36349623326906028</v>
       </c>
       <c r="H43" s="20">
         <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G43,C43)</f>
-        <v>0.8928867803959526</v>
+        <v>0.98107971990939091</v>
       </c>
       <c r="I43" s="20">
         <f>[1]!MF_ksep_total_d(E43,H43)</f>
-        <v>0.94904899578538693</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.99343662680426947</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C44" s="2">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D44" s="2">
         <v>80</v>
       </c>
       <c r="E44" s="20">
         <f>[1]!MF_ksep_natural_d(C44,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.50017790833451481</v>
+        <v>0.61752520116363196</v>
       </c>
       <c r="F44" s="20">
         <f>[1]!MF_ksep_natural_d(C44,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.33451685442141121</v>
+        <v>0.43141714152644095</v>
       </c>
       <c r="G44" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F44)</f>
-        <v>0.45997936906905212</v>
+        <v>0.38931216428592552</v>
       </c>
       <c r="H44" s="20">
         <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G44,C44)</f>
-        <v>0.86597093840407813</v>
+        <v>0.97009249396449926</v>
       </c>
       <c r="I44" s="20">
         <f>[1]!MF_ksep_total_d(E44,H44)</f>
-        <v>0.93300931408916421</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.98856113264537437</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C45" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D45" s="2">
         <v>80</v>
       </c>
       <c r="E45" s="20">
         <f>[1]!MF_ksep_natural_d(C45,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.47823679654791729</v>
+        <v>0.58532616450310126</v>
       </c>
       <c r="F45" s="20">
         <f>[1]!MF_ksep_natural_d(C45,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.32131913986811034</v>
+        <v>0.40051894784698439</v>
       </c>
       <c r="G45" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F45)</f>
-        <v>0.46910157817940118</v>
+        <v>0.41046834666920839</v>
       </c>
       <c r="H45" s="20">
         <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G45,C45)</f>
-        <v>0.83987827449459418</v>
+        <v>0.94952489966429721</v>
       </c>
       <c r="I45" s="20">
         <f>[1]!MF_ksep_total_d(E45,H45)</f>
-        <v>0.91645437555802445</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.97906929654670327</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C46" s="2">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D46" s="2">
         <v>80</v>
       </c>
       <c r="E46" s="20">
         <f>[1]!MF_ksep_natural_d(C46,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.45829517837335598</v>
+        <v>0.55611531726363705</v>
       </c>
       <c r="F46" s="20">
         <f>[1]!MF_ksep_natural_d(C46,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.31063984342299866</v>
+        <v>0.37525319609408436</v>
       </c>
       <c r="G46" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F46)</f>
-        <v>0.47648306646135158</v>
+        <v>0.42776796158134145</v>
       </c>
       <c r="H46" s="20">
         <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G46,C46)</f>
-        <v>0.81482122940535195</v>
+        <v>0.92411357368496627</v>
       </c>
       <c r="I46" s="20">
         <f>[1]!MF_ksep_total_d(E46,H46)</f>
-        <v>0.89968776710598497</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.96631517773115483</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C47" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D47" s="2">
         <v>80</v>
       </c>
       <c r="E47" s="20">
         <f>[1]!MF_ksep_natural_d(C47,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.44017070266659086</v>
+        <v>0.52957141271840857</v>
       </c>
       <c r="F47" s="20">
         <f>[1]!MF_ksep_natural_d(C47,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.30193884651707981</v>
+        <v>0.35465275964017806</v>
       </c>
       <c r="G47" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F47)</f>
-        <v>0.48249716177488</v>
+        <v>0.44187320654534856</v>
       </c>
       <c r="H47" s="20">
         <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G47,C47)</f>
-        <v>0.79082857973808673</v>
+        <v>0.89781241424556091</v>
       </c>
       <c r="I47" s="20">
         <f>[1]!MF_ksep_total_d(E47,H47)</f>
-        <v>0.88289971077254192</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.95192803839582274</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C48" s="2">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D48" s="2">
         <v>80</v>
       </c>
       <c r="E48" s="20">
         <f>[1]!MF_ksep_natural_d(C48,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.42370124661810937</v>
+        <v>0.50542444388830621</v>
       </c>
       <c r="F48" s="20">
         <f>[1]!MF_ksep_natural_d(C48,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.29474150326600235</v>
+        <v>0.3379038239004597</v>
       </c>
       <c r="G48" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F48)</f>
-        <v>0.48747193751428008</v>
+        <v>0.45334130538994094</v>
       </c>
       <c r="H48" s="20">
         <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G48,C48)</f>
-        <v>0.76781197589878003</v>
+        <v>0.8716030022483976</v>
       </c>
       <c r="I48" s="20">
         <f>[1]!MF_ksep_total_d(E48,H48)</f>
-        <v>0.86619033116026256</v>
-      </c>
-    </row>
-    <row r="49" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.93649798343392932</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C49" s="2">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="D49" s="2">
         <v>80</v>
       </c>
       <c r="E49" s="20">
         <f>[1]!MF_ksep_natural_d(C49,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.40874143295390408</v>
+        <v>0.48344320159454468</v>
       </c>
       <c r="F49" s="20">
         <f>[1]!MF_ksep_natural_d(C49,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.28862827155793003</v>
+        <v>0.32431089745423947</v>
       </c>
       <c r="G49" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F49)</f>
-        <v>0.49169737956000947</v>
+        <v>0.46264846534893833</v>
       </c>
       <c r="H49" s="20">
         <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G49,C49)</f>
-        <v>0.74560934203400919</v>
+        <v>0.84603637893276029</v>
       </c>
       <c r="I49" s="20">
         <f>[1]!MF_ksep_total_d(E49,H49)</f>
-        <v>0.84958934410111475</v>
-      </c>
-    </row>
-    <row r="50" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.92046904483059599</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C50" s="2">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="D50" s="2">
         <v>80</v>
       </c>
       <c r="E50" s="20">
         <f>[1]!MF_ksep_natural_d(C50,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.39515994859888792</v>
+        <v>0.46342670856308232</v>
       </c>
       <c r="F50" s="20">
         <f>[1]!MF_ksep_natural_d(C50,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.28322659636764946</v>
+        <v>0.31327244946686861</v>
       </c>
       <c r="G50" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F50)</f>
-        <v>0.4954309965004971</v>
+        <v>0.47020655826763436</v>
       </c>
       <c r="H50" s="20">
         <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G50,C50)</f>
-        <v>0.72401260727882755</v>
+        <v>0.82137737221680596</v>
       </c>
       <c r="I50" s="20">
         <f>[1]!MF_ksep_total_d(E50,H50)</f>
-        <v>0.83307177120046716</v>
-      </c>
-    </row>
-    <row r="51" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.9041558686852601</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C51" s="2">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="D51" s="2">
         <v>80</v>
       </c>
       <c r="E51" s="20">
         <f>[1]!MF_ksep_natural_d(C51,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.38283744199144643</v>
+        <v>0.4451981071283615</v>
       </c>
       <c r="F51" s="20">
         <f>[1]!MF_ksep_natural_d(C51,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.27820443226268754</v>
+        <v>0.30426330547102243</v>
       </c>
       <c r="G51" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F51)</f>
-        <v>0.49890229685079096</v>
+        <v>0.47637517431913207</v>
       </c>
       <c r="H51" s="20">
         <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G51,C51)</f>
-        <v>0.70278475542321539</v>
+        <v>0.79770274917782658</v>
       </c>
       <c r="I51" s="20">
         <f>[1]!MF_ksep_total_d(E51,H51)</f>
-        <v>0.81656987937785375</v>
-      </c>
-    </row>
-    <row r="52" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.8877651023211296</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C52" s="2">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D52" s="2">
         <v>80</v>
       </c>
       <c r="E52" s="20">
         <f>[1]!MF_ksep_natural_d(C52,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.37166484739505279</v>
+        <v>0.42860016673006252</v>
       </c>
       <c r="F52" s="20">
         <f>[1]!MF_ksep_natural_d(C52,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.27326498659267173</v>
+        <v>0.29682152843273535</v>
       </c>
       <c r="G52" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F52)</f>
-        <v>0.50231642253968334</v>
+        <v>0.48147060461874874</v>
       </c>
       <c r="H52" s="20">
         <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G52,C52)</f>
-        <v>0.68166951287757793</v>
+        <v>0.77496713465603206</v>
       </c>
       <c r="I52" s="20">
         <f>[1]!MF_ksep_total_d(E52,H52)</f>
-        <v>0.79998176479512573</v>
-      </c>
-    </row>
-    <row r="53" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.87141625826220048</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C53" s="2">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="D53" s="2">
         <v>80</v>
       </c>
       <c r="E53" s="20">
         <f>[1]!MF_ksep_natural_d(C53,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.36154203037267374</v>
+        <v>0.41349189867356206</v>
       </c>
       <c r="F53" s="20">
         <f>[1]!MF_ksep_natural_d(C53,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.26814239056053424</v>
+        <v>0.29053838416242339</v>
       </c>
       <c r="G53" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F53)</f>
-        <v>0.50585714104850388</v>
+        <v>0.48577271196852495</v>
       </c>
       <c r="H53" s="20">
         <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G53,C53)</f>
-        <v>0.6603959160428754</v>
+        <v>0.75304675169391055</v>
       </c>
       <c r="I53" s="20">
         <f>[1]!MF_ksep_total_d(E53,H53)</f>
-        <v>0.78317706607958615</v>
-      </c>
-    </row>
-    <row r="54" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.85515991921959911</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C54" s="2">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="D54" s="2">
         <v>80</v>
       </c>
       <c r="E54" s="20">
         <f>[1]!MF_ksep_natural_d(C54,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.35237667892881852</v>
+        <v>0.39974595039195115</v>
       </c>
       <c r="F54" s="20">
         <f>[1]!MF_ksep_natural_d(C54,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.26259808920658134</v>
+        <v>0.28505049267977167</v>
       </c>
       <c r="G54" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F54)</f>
-        <v>0.50968934064012938</v>
+        <v>0.48953030486573818</v>
       </c>
       <c r="H54" s="20">
         <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G54,C54)</f>
-        <v>0.63867932304179043</v>
+        <v>0.73176795435363429</v>
       </c>
       <c r="I54" s="20">
         <f>[1]!MF_ksep_total_d(E54,H54)</f>
-        <v>0.76600030321663681</v>
-      </c>
-    </row>
-    <row r="55" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.83899262836611799</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C55" s="2">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="D55" s="2">
         <v>80</v>
       </c>
       <c r="E55" s="20">
         <f>[1]!MF_ksep_natural_d(C55,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.34408338541161276</v>
+        <v>0.38724656246091982</v>
       </c>
       <c r="F55" s="20">
         <f>[1]!MF_ksep_natural_d(C55,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.25641779927108477</v>
+        <v>0.28003356969953597</v>
       </c>
       <c r="G55" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F55)</f>
-        <v>0.51396113307256119</v>
+        <v>0.49296542274589178</v>
       </c>
       <c r="H55" s="20">
         <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G55,C55)</f>
-        <v>0.61622002468943637</v>
+        <v>0.71092528272545008</v>
       </c>
       <c r="I55" s="20">
         <f>[1]!MF_ksep_total_d(E55,H55)</f>
-        <v>0.74827233784748026</v>
-      </c>
-    </row>
-    <row r="56" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.82286847328438184</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C56" s="2">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="D56" s="2">
         <v>80</v>
       </c>
       <c r="E56" s="20">
         <f>[1]!MF_ksep_natural_d(C56,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.33658287854462676</v>
+        <v>0.37588794084561705</v>
       </c>
       <c r="F56" s="20">
         <f>[1]!MF_ksep_natural_d(C56,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.23264624777464604</v>
+        <v>0.27519735150506097</v>
       </c>
       <c r="G56" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F56)</f>
-        <v>0.53039193726613354</v>
+        <v>0.49627681095288884</v>
       </c>
       <c r="H56" s="20">
         <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G56,C56)</f>
-        <v>0.57233158050232247</v>
+        <v>0.69029222782410071</v>
       </c>
       <c r="I56" s="20">
         <f>[1]!MF_ksep_total_d(E56,H56)</f>
-        <v>0.7162774481994818</v>
-      </c>
-    </row>
-    <row r="57" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.80670764457118294</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C57" s="2">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="D57" s="2">
         <v>80</v>
       </c>
       <c r="E57" s="20">
         <f>[1]!MF_ksep_natural_d(C57,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.32980137505356533</v>
+        <v>0.36557294143433205</v>
       </c>
       <c r="F57" s="20">
         <f>[1]!MF_ksep_natural_d(C57,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.22129049898017428</v>
+        <v>0.2702814186024165</v>
       </c>
       <c r="G57" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F57)</f>
-        <v>0.53824098678826138</v>
+        <v>0.49964278030861453</v>
       </c>
       <c r="H57" s="20">
         <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G57,C57)</f>
-        <v>0.54216499356944992</v>
+        <v>0.66962687250438646</v>
       </c>
       <c r="I57" s="20">
         <f>[1]!MF_ksep_total_d(E57,H57)</f>
-        <v>0.69315960823790324</v>
-      </c>
-    </row>
-    <row r="58" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="59" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="65" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="67" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="69" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="70" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="F70" s="3"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-    </row>
-    <row r="71" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-    </row>
-    <row r="72" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-    </row>
-    <row r="73" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-    </row>
-    <row r="74" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-    </row>
-    <row r="75" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.79040234849381752</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="2">
+        <v>210</v>
+      </c>
+      <c r="D58" s="2">
+        <v>80</v>
+      </c>
+      <c r="E58" s="20">
+        <f>[1]!MF_ksep_natural_d(C58,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.35621199342816867</v>
+      </c>
+      <c r="F58" s="20">
+        <f>[1]!MF_ksep_natural_d(C58,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.26505171484112022</v>
+      </c>
+      <c r="G58" s="20">
+        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F58)</f>
+        <v>0.50322359049228838</v>
+      </c>
+      <c r="H58" s="20">
+        <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G58,C58)</f>
+        <v>0.64867391822304332</v>
+      </c>
+      <c r="I58" s="20">
+        <f>[1]!MF_ksep_total_d(E58,H58)</f>
+        <v>0.77382048215612087</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="2">
+        <v>220</v>
+      </c>
+      <c r="D59" s="2">
+        <v>80</v>
+      </c>
+      <c r="E59" s="20">
+        <f>[1]!MF_ksep_natural_d(C59,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.34772220818301403</v>
+      </c>
+      <c r="F59" s="20">
+        <f>[1]!MF_ksep_natural_d(C59,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.25929761453945233</v>
+      </c>
+      <c r="G59" s="20">
+        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F59)</f>
+        <v>0.50716345819771758</v>
+      </c>
+      <c r="H59" s="20">
+        <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G59,C59)</f>
+        <v>0.62716419771848597</v>
+      </c>
+      <c r="I59" s="20">
+        <f>[1]!MF_ksep_total_d(E59,H59)</f>
+        <v>0.7568074861774996</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="2">
+        <v>230</v>
+      </c>
+      <c r="D60" s="2">
+        <v>80</v>
+      </c>
+      <c r="E60" s="20">
+        <f>[1]!MF_ksep_natural_d(C60,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.34002663398834132</v>
+      </c>
+      <c r="F60" s="20">
+        <f>[1]!MF_ksep_natural_d(C60,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.23746445796803251</v>
+      </c>
+      <c r="G60" s="20">
+        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F60)</f>
+        <v>0.52211275417338621</v>
+      </c>
+      <c r="H60" s="20">
+        <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G60,C60)</f>
+        <v>0.5869991735801906</v>
+      </c>
+      <c r="I60" s="20">
+        <f>[1]!MF_ksep_total_d(E60,H60)</f>
+        <v>0.72743045442212162</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="2">
+        <v>240</v>
+      </c>
+      <c r="D61" s="2">
+        <v>80</v>
+      </c>
+      <c r="E61" s="20">
+        <f>[1]!MF_ksep_natural_d(C61,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.33305362708723774</v>
+      </c>
+      <c r="F61" s="20">
+        <f>[1]!MF_ksep_natural_d(C61,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.22707984943605819</v>
+      </c>
+      <c r="G61" s="20">
+        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F61)</f>
+        <v>0.52922315921390861</v>
+      </c>
+      <c r="H61" s="20">
+        <f>[1]!ESP_ksep_gasseparator_d(gassep_type,G61,C61)</f>
+        <v>0.55896271773400952</v>
+      </c>
+      <c r="I61" s="20">
+        <f>[1]!MF_ksep_total_d(E61,H61)</f>
+        <v>0.70585178427339557</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F74" s="3"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="9"/>
@@ -5145,7 +5113,7 @@
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="9"/>
@@ -5153,7 +5121,7 @@
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="9"/>
@@ -5161,7 +5129,7 @@
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="9"/>
@@ -5169,7 +5137,7 @@
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="9"/>
@@ -5177,7 +5145,7 @@
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="9"/>
@@ -5185,7 +5153,7 @@
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="9"/>
@@ -5193,7 +5161,7 @@
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="9"/>
@@ -5201,7 +5169,7 @@
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="9"/>
@@ -5209,7 +5177,7 @@
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="9"/>
@@ -5217,7 +5185,7 @@
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="9"/>
@@ -5225,7 +5193,7 @@
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="9"/>
@@ -5233,7 +5201,7 @@
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="9"/>
@@ -5241,7 +5209,7 @@
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="9"/>
@@ -5249,7 +5217,7 @@
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="9"/>
@@ -5257,7 +5225,7 @@
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="9"/>
@@ -5265,7 +5233,7 @@
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="9"/>
@@ -5273,16 +5241,48 @@
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="93" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="94" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="149" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K149" t="s">
+    <row r="92" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+    </row>
+    <row r="93" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+    </row>
+    <row r="94" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+    </row>
+    <row r="95" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+    </row>
+    <row r="96" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="97" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="98" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="153" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K153" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K160" s="6"/>
+    <row r="164" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K164" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
